--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCDE/20/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCDE/20/seed4/result_data_KNN.xlsx
@@ -539,7 +539,7 @@
         <v>-15.25</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.109999999999999</v>
+        <v>-8.071</v>
       </c>
       <c r="E6" t="n">
         <v>16.12</v>
@@ -553,13 +553,13 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.44</v>
+        <v>-13.435</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>16.362</v>
+        <v>15.978</v>
       </c>
     </row>
     <row r="8">
@@ -584,7 +584,7 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>5.706</v>
+        <v>5.361</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
@@ -610,7 +610,7 @@
         <v>-8.85</v>
       </c>
       <c r="E10" t="n">
-        <v>16.488</v>
+        <v>16.565</v>
       </c>
     </row>
     <row r="11">
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.372</v>
+        <v>-11.141</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -652,7 +652,7 @@
         <v>-22.15</v>
       </c>
       <c r="B13" t="n">
-        <v>4.664</v>
+        <v>5.057</v>
       </c>
       <c r="C13" t="n">
         <v>-15.83</v>
@@ -661,7 +661,7 @@
         <v>-8.359999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>16.934</v>
+        <v>16.639</v>
       </c>
     </row>
     <row r="14">
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-13.662</v>
+        <v>-13.321</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.634</v>
+        <v>-8.354000000000001</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -703,7 +703,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>5.738</v>
+        <v>5.244999999999999</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -712,7 +712,7 @@
         <v>-9.27</v>
       </c>
       <c r="E16" t="n">
-        <v>16.728</v>
+        <v>16.675</v>
       </c>
     </row>
     <row r="17">
@@ -737,7 +737,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>4.502000000000001</v>
+        <v>4.795</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -757,7 +757,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-12.526</v>
+        <v>-12.028</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>6.962000000000001</v>
+        <v>6.775999999999999</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>16.204</v>
+        <v>15.951</v>
       </c>
     </row>
     <row r="21">
@@ -848,7 +848,7 @@
         <v>-7.7</v>
       </c>
       <c r="E24" t="n">
-        <v>17.07</v>
+        <v>16.763</v>
       </c>
     </row>
     <row r="25">
@@ -873,10 +873,10 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>4.808</v>
+        <v>6.118</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.8</v>
+        <v>-12.795</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -890,10 +890,10 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.364</v>
+        <v>5.956</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.612</v>
+        <v>-13.768</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -913,7 +913,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-7.908000000000001</v>
+        <v>-7.904000000000001</v>
       </c>
       <c r="E28" t="n">
         <v>16.42</v>
@@ -924,10 +924,10 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.296</v>
+        <v>5.36</v>
       </c>
       <c r="C29" t="n">
-        <v>-10.814</v>
+        <v>-11.281</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -984,7 +984,7 @@
         <v>-8.69</v>
       </c>
       <c r="E32" t="n">
-        <v>15.86</v>
+        <v>16.394</v>
       </c>
     </row>
     <row r="33">
@@ -998,7 +998,7 @@
         <v>-12.22</v>
       </c>
       <c r="D33" t="n">
-        <v>-7.364</v>
+        <v>-7.342000000000001</v>
       </c>
       <c r="E33" t="n">
         <v>17.52</v>
@@ -1026,13 +1026,13 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>9.257999999999999</v>
+        <v>9.239000000000001</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-7.63</v>
+        <v>-7.826000000000001</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1043,7 +1043,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.482000000000001</v>
+        <v>8.279</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.198</v>
+        <v>-13.038</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1080,10 +1080,10 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-14.828</v>
+        <v>-14.03</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.910000000000001</v>
+        <v>-8.324999999999999</v>
       </c>
       <c r="E38" t="n">
         <v>15.23</v>
@@ -1103,7 +1103,7 @@
         <v>-8.93</v>
       </c>
       <c r="E39" t="n">
-        <v>16.284</v>
+        <v>16.532</v>
       </c>
     </row>
     <row r="40">
@@ -1168,7 +1168,7 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-7.961999999999999</v>
+        <v>-7.776999999999999</v>
       </c>
       <c r="E43" t="n">
         <v>16.64</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.598000000000001</v>
+        <v>-7.476999999999999</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1196,13 +1196,13 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>5.256</v>
+        <v>6.018</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.134</v>
+        <v>-7.500999999999999</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1233,13 +1233,13 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.866</v>
+        <v>-11.881</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.42</v>
+        <v>-7.132</v>
       </c>
       <c r="E47" t="n">
-        <v>16.852</v>
+        <v>17.259</v>
       </c>
     </row>
     <row r="48">
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.466</v>
+        <v>17.15</v>
       </c>
     </row>
     <row r="49">
@@ -1301,10 +1301,10 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-12.742</v>
+        <v>-13.014</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.946</v>
+        <v>-7.57</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1318,13 +1318,13 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.646</v>
+        <v>-11.99</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
       </c>
       <c r="E52" t="n">
-        <v>17.374</v>
+        <v>17.191</v>
       </c>
     </row>
     <row r="53">
@@ -1355,7 +1355,7 @@
         <v>-13.87</v>
       </c>
       <c r="D54" t="n">
-        <v>-7.942</v>
+        <v>-8.084</v>
       </c>
       <c r="E54" t="n">
         <v>15.77</v>
@@ -1366,10 +1366,10 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>6.07</v>
+        <v>5.757000000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>-14.5</v>
+        <v>-13.552</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1392,7 +1392,7 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.958</v>
+        <v>16.448</v>
       </c>
     </row>
     <row r="57">
@@ -1400,13 +1400,13 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.625999999999999</v>
+        <v>5.423999999999999</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.288</v>
+        <v>-8.006</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1491,7 +1491,7 @@
         <v>-14.53</v>
       </c>
       <c r="D62" t="n">
-        <v>-8.155999999999999</v>
+        <v>-7.867</v>
       </c>
       <c r="E62" t="n">
         <v>16.65</v>
@@ -1508,7 +1508,7 @@
         <v>-9.970000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-7.343999999999999</v>
+        <v>-7.641999999999999</v>
       </c>
       <c r="E63" t="n">
         <v>16.71</v>
@@ -1576,7 +1576,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-7.114</v>
+        <v>-6.986</v>
       </c>
       <c r="E67" t="n">
         <v>18.14</v>
@@ -1604,10 +1604,10 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.47</v>
+        <v>5.293000000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>-10.986</v>
+        <v>-10.921</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1624,10 +1624,10 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-13.216</v>
+        <v>-13.014</v>
       </c>
       <c r="D70" t="n">
-        <v>-8.023999999999999</v>
+        <v>-7.863</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1723,10 +1723,10 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>5.709999999999999</v>
+        <v>5.548</v>
       </c>
       <c r="C76" t="n">
-        <v>-12.482</v>
+        <v>-12.395</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1757,7 +1757,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>8.367999999999999</v>
+        <v>7.523999999999999</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1811,10 +1811,10 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-13.314</v>
+        <v>-12.837</v>
       </c>
       <c r="D81" t="n">
-        <v>-8.178000000000001</v>
+        <v>-7.929</v>
       </c>
       <c r="E81" t="n">
         <v>17.6</v>
@@ -1825,7 +1825,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>5.788</v>
+        <v>5.375</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1842,10 +1842,10 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.183999999999999</v>
+        <v>5.351</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.18</v>
+        <v>-13.97</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.646</v>
+        <v>16.734</v>
       </c>
     </row>
     <row r="85">
@@ -1933,7 +1933,7 @@
         <v>-14.65</v>
       </c>
       <c r="D88" t="n">
-        <v>-7.741999999999999</v>
+        <v>-7.972</v>
       </c>
       <c r="E88" t="n">
         <v>17.32</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>5.16</v>
+        <v>5.508999999999999</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2032,7 +2032,7 @@
         <v>4.26</v>
       </c>
       <c r="C94" t="n">
-        <v>-11.072</v>
+        <v>-11.012</v>
       </c>
       <c r="D94" t="n">
         <v>-5.14</v>
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.756</v>
+        <v>-7.467999999999999</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2080,7 +2080,7 @@
         <v>-21.32</v>
       </c>
       <c r="B97" t="n">
-        <v>6.778</v>
+        <v>5.92</v>
       </c>
       <c r="C97" t="n">
         <v>-13.93</v>
@@ -2120,7 +2120,7 @@
         <v>-15.77</v>
       </c>
       <c r="D99" t="n">
-        <v>-8.208</v>
+        <v>-7.739999999999999</v>
       </c>
       <c r="E99" t="n">
         <v>16.01</v>
@@ -2134,13 +2134,13 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-11.49</v>
+        <v>-11.876</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.614</v>
+        <v>16.883</v>
       </c>
     </row>
     <row r="101">
@@ -2157,7 +2157,7 @@
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>16.654</v>
+        <v>16.683</v>
       </c>
     </row>
     <row r="102">
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.338</v>
+        <v>-13.55</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
